--- a/biology/Botanique/Thuill/Thuill..xlsx
+++ b/biology/Botanique/Thuill/Thuill..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Thuillier est un jardinier et botaniste français né le 21 avril 1758 à Creil et mort le 22 novembre 1822 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un manouvrier,  Louis THUILLIER et  de Marguerite BONTEMS ( Acte de baptême n°11 du registre 5MI2146, archives départementales de l'Oise). Ce jardinier ne reçoit qu’une éducation sommaire. D'abord jardinier au Jardin royal des plantes à Paris, il passe l’essentiel de sa vie au collège Charlemagne. Ce grand récolteur de plantes est souvent sollicité par des botanistes comme Richard (1754-1821) ou Jussieu (1748-1836) pour les accompagner durant leur herborisation.
 Il fait commerce de ses herborisations et vend notamment des herbiers déjà entièrement préparés. Le Genevois Benjamin Delessert (1773-1784) obtient ainsi un herbier. Thuillier publie en 1790, une Flore des environs de Paris, ou Distribution méthodique des plantes qui y croissent naturellement, exécutée d'après le système de Linnaeus (Veuve Desaint, Paris, 1790). Thuillier n’est en fait que l’auteur des indications de localités. Les descriptions étant confiées à d’autres botanistes.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flore des environs de Paris, ou Distribution méthodique des plantes qui y croissent naturellement sur Google Books, Veuve Desaint, Paris, 1790
 Flore des environs de Paris, ou Distribution méthodique des plantes qui y croissent naturellement. Nouvelle édition sur Google Books, A Paris, Chez l'Auteur, An VII</t>
@@ -575,7 +591,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un certain nombre de plantes ont été nommées d'après lui, notamment :
 Centaurea thuillieri (Dostál) J.Duvign. &amp; Lambinon
